--- a/biology/Zoologie/Carpilius_corallinus/Carpilius_corallinus.xlsx
+++ b/biology/Zoologie/Carpilius_corallinus/Carpilius_corallinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crabe bombé antillais, Crabe corail, Tou'teau[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crabe bombé antillais, Crabe corail, Tou'teau
 Carpilius corallinus, communément nommé Crabe bombé antillais, Crabe corail ou Tou'teau, est une espèce de crustacé marin de la famille des Carpiliidae.
-La Crabe bombé antillais est présent dans les eaux tropicales de la zone occidentale de l'Océan Atlantique et plus particulièrement dans le Golfe du Mexique et la Mer des Caraïbes et des côtes de la Floride au Brésil[5]. Ce crabe est comestible.
+La Crabe bombé antillais est présent dans les eaux tropicales de la zone occidentale de l'Océan Atlantique et plus particulièrement dans le Golfe du Mexique et la Mer des Caraïbes et des côtes de la Floride au Brésil. Ce crabe est comestible.
 </t>
         </is>
       </c>
